--- a/战备计算器/S5装备价格.xlsx
+++ b/战备计算器/S5装备价格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战备计算器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D265B68-30D6-4A26-AF87-CE8548F7A8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE2DD8-4436-456C-9CE3-5A0EFD2AF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{DA9659AD-064F-414B-8551-2A3419EEC3A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
   <si>
     <t>护甲</t>
   </si>
@@ -646,6 +646,34 @@
   </si>
   <si>
     <t>差值百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风战术胸挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑鹰野战胸挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAR突击手胸挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7战术背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTO重型战术包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备品质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +774,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB26EA9E-056E-45BE-8898-D31BB0456E1D}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147:G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1"/>
@@ -1095,7 +1126,7 @@
     <col min="7" max="16384" width="20.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.95" customHeight="1">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>181</v>
       </c>
@@ -1111,14 +1142,17 @@
       <c r="F1" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1136,8 +1170,11 @@
         <f>D3/C3-1</f>
         <v>-0.11628959276018103</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1155,8 +1192,11 @@
         <f t="shared" ref="F4:F67" si="1">D4/C4-1</f>
         <v>1.1578305911029929E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1214,11 @@
         <f t="shared" si="1"/>
         <v>-3.8001407459535508E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1236,11 @@
         <f t="shared" si="1"/>
         <v>-4.8474576271186454E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1212,8 +1258,11 @@
         <f t="shared" si="1"/>
         <v>-6.0956175298804816E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1231,8 +1280,11 @@
         <f t="shared" si="1"/>
         <v>-7.7815369743837626E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1302,11 @@
         <f t="shared" si="1"/>
         <v>-4.8378378378378328E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1269,8 +1324,11 @@
         <f t="shared" si="1"/>
         <v>-1.9385026737967936E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1288,8 +1346,11 @@
         <f t="shared" si="1"/>
         <v>-5.0115651503469527E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1307,8 +1368,11 @@
         <f t="shared" si="1"/>
         <v>-4.7698744769874457E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1326,8 +1390,11 @@
         <f t="shared" si="1"/>
         <v>-3.0927835051546282E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1345,11 +1412,14 @@
         <f t="shared" si="1"/>
         <v>-3.7523452157598447E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1">
+    <row r="16" spans="1:7" ht="19.95" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1367,8 +1437,11 @@
         <f t="shared" si="1"/>
         <v>-0.11169623059866962</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="19.95" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1386,8 +1459,11 @@
         <f t="shared" si="1"/>
         <v>-1.129211403184005E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="19.95" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1481,11 @@
         <f t="shared" si="1"/>
         <v>0.48970783532536521</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="19.95" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1424,8 +1503,11 @@
         <f t="shared" si="1"/>
         <v>-0.12896154899990864</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="19.95" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1443,8 +1525,11 @@
         <f t="shared" si="1"/>
         <v>0.3436101442068622</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="19.95" customHeight="1">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1462,8 +1547,11 @@
         <f t="shared" si="1"/>
         <v>-0.13051973427119967</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="19.95" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1481,8 +1569,11 @@
         <f t="shared" si="1"/>
         <v>-0.12829826605441708</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="19.95" customHeight="1">
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1500,8 +1591,11 @@
         <f t="shared" si="1"/>
         <v>4.2854353768059461E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="19.95" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1519,8 +1613,11 @@
         <f t="shared" si="1"/>
         <v>-0.12852388410336724</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="19.95" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1538,8 +1635,11 @@
         <f t="shared" si="1"/>
         <v>-8.1886706258565534E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="19.95" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1557,8 +1657,11 @@
         <f t="shared" si="1"/>
         <v>0.43937756645774795</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="19.95" customHeight="1">
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1576,11 +1679,14 @@
         <f t="shared" si="1"/>
         <v>-2.0611229566453448E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="19.95" customHeight="1">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="19.95" customHeight="1">
+    <row r="29" spans="2:7" ht="19.95" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1704,11 @@
         <f t="shared" si="1"/>
         <v>-0.13916827574281676</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="19.95" customHeight="1">
       <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1617,8 +1726,11 @@
         <f t="shared" si="1"/>
         <v>-7.9313832270110463E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="19.95" customHeight="1">
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1636,8 +1748,11 @@
         <f t="shared" si="1"/>
         <v>-0.14553905039642756</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19.95" customHeight="1">
       <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1655,8 +1770,11 @@
         <f t="shared" si="1"/>
         <v>-0.18405999745773483</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="19.95" customHeight="1">
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1674,8 +1792,11 @@
         <f t="shared" si="1"/>
         <v>-0.29844395205962337</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="19.95" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
@@ -1693,8 +1814,11 @@
         <f t="shared" si="1"/>
         <v>-0.14823306431890437</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="19.95" customHeight="1">
       <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
@@ -1712,8 +1836,11 @@
         <f t="shared" si="1"/>
         <v>-0.1786517209714702</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="19.95" customHeight="1">
       <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
@@ -1731,8 +1858,11 @@
         <f t="shared" si="1"/>
         <v>-5.5056103056649319E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="19.95" customHeight="1">
       <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1750,8 +1880,11 @@
         <f t="shared" si="1"/>
         <v>-0.14179561616107816</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="19.95" customHeight="1">
       <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
@@ -1769,8 +1902,11 @@
         <f t="shared" si="1"/>
         <v>-0.18846612753546332</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="19.95" customHeight="1">
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1788,8 +1924,11 @@
         <f t="shared" si="1"/>
         <v>-0.11443269299949632</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="19.95" customHeight="1">
       <c r="B40" s="3" t="s">
         <v>36</v>
       </c>
@@ -1807,11 +1946,14 @@
         <f t="shared" si="1"/>
         <v>-0.19187415881561243</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="19.95" customHeight="1">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:6" ht="19.95" customHeight="1">
+    <row r="42" spans="2:7" ht="19.95" customHeight="1">
       <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
@@ -1829,8 +1971,11 @@
         <f t="shared" si="1"/>
         <v>-0.14907524737392408</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="19.95" customHeight="1">
       <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1848,8 +1993,11 @@
         <f t="shared" si="1"/>
         <v>-3.7787980566768353E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="19.95" customHeight="1">
       <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
@@ -1867,8 +2015,11 @@
         <f t="shared" si="1"/>
         <v>-0.15524824855315256</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="19.95" customHeight="1">
       <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
@@ -1886,8 +2037,11 @@
         <f t="shared" si="1"/>
         <v>-0.19935609288181599</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="19.95" customHeight="1">
       <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
@@ -1905,8 +2059,11 @@
         <f t="shared" si="1"/>
         <v>-0.14557545195460098</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="19.95" customHeight="1">
       <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
@@ -1924,8 +2081,11 @@
         <f t="shared" si="1"/>
         <v>-0.21317288635697085</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="19.95" customHeight="1">
       <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1943,8 +2103,11 @@
         <f t="shared" si="1"/>
         <v>-0.23218569720699977</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="19.95" customHeight="1">
       <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
@@ -1962,8 +2125,11 @@
         <f t="shared" si="1"/>
         <v>-0.12539325298872273</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="19.95" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
@@ -1981,8 +2147,11 @@
         <f t="shared" si="1"/>
         <v>-0.13102748986029744</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="19.95" customHeight="1">
       <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
@@ -2000,8 +2169,11 @@
         <f t="shared" si="1"/>
         <v>-0.17254845574279631</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="19.95" customHeight="1">
       <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
@@ -2019,8 +2191,11 @@
         <f t="shared" si="1"/>
         <v>-0.14392923091491616</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="19.95" customHeight="1">
       <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
@@ -2038,50 +2213,80 @@
         <f t="shared" si="1"/>
         <v>-0.22214693260269669</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="19.95" customHeight="1">
       <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C54" s="1">
+        <v>133086</v>
+      </c>
+      <c r="D54" s="1">
+        <v>119484</v>
+      </c>
       <c r="E54" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="19.95" customHeight="1">
+        <v>-13602</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.10220458951354761</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="19.95" customHeight="1">
       <c r="B55" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C55" s="1">
+        <v>95410</v>
+      </c>
+      <c r="D55" s="1">
+        <v>91264</v>
+      </c>
       <c r="E55" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="19.95" customHeight="1">
+        <v>-4146</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.3454564511057558E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="19.95" customHeight="1">
       <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C56" s="1">
+        <v>80444</v>
+      </c>
+      <c r="D56" s="1">
+        <v>67545</v>
+      </c>
       <c r="E56" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="19.95" customHeight="1">
+        <v>-12899</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.16034757098105512</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="19.95" customHeight="1">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:6" ht="19.95" customHeight="1">
+    <row r="58" spans="2:7" ht="19.95" customHeight="1">
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
@@ -2099,8 +2304,11 @@
         <f t="shared" si="1"/>
         <v>1.6846434391246889E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="19.95" customHeight="1">
       <c r="B59" s="3" t="s">
         <v>53</v>
       </c>
@@ -2118,8 +2326,11 @@
         <f t="shared" si="1"/>
         <v>-0.11806059520076451</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="19.95" customHeight="1">
       <c r="B60" s="3" t="s">
         <v>54</v>
       </c>
@@ -2137,8 +2348,11 @@
         <f t="shared" si="1"/>
         <v>-0.3055872147506522</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="19.95" customHeight="1">
       <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
@@ -2156,8 +2370,11 @@
         <f t="shared" si="1"/>
         <v>4.5777411111334709E-2</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="19.95" customHeight="1">
       <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
@@ -2175,8 +2392,11 @@
         <f t="shared" si="1"/>
         <v>4.1512790554306234E-2</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="19.95" customHeight="1">
       <c r="B63" s="3" t="s">
         <v>57</v>
       </c>
@@ -2194,8 +2414,11 @@
         <f t="shared" si="1"/>
         <v>-0.14769973417700877</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="19.95" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>58</v>
       </c>
@@ -2213,8 +2436,11 @@
         <f t="shared" si="1"/>
         <v>5.4359465767005011E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19.95" customHeight="1">
       <c r="B65" s="3" t="s">
         <v>59</v>
       </c>
@@ -2232,8 +2458,11 @@
         <f t="shared" si="1"/>
         <v>1.2487573858749768E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="19.95" customHeight="1">
       <c r="B66" s="3" t="s">
         <v>60</v>
       </c>
@@ -2251,8 +2480,11 @@
         <f t="shared" si="1"/>
         <v>-0.11654316903738005</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19.95" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
@@ -2270,8 +2502,11 @@
         <f t="shared" si="1"/>
         <v>1.2492364005701528E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19.95" customHeight="1">
       <c r="B68" s="2" t="s">
         <v>135</v>
       </c>
@@ -2289,8 +2524,11 @@
         <f t="shared" ref="F68:F131" si="5">D68/C68-1</f>
         <v>-6.0875637049531139E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="19.95" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>134</v>
       </c>
@@ -2308,11 +2546,14 @@
         <f t="shared" si="5"/>
         <v>-0.24338400485397094</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="19.95" customHeight="1">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="19.95" customHeight="1">
+    <row r="71" spans="1:7" ht="19.95" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>61</v>
       </c>
@@ -2320,59 +2561,74 @@
         <v>4951636</v>
       </c>
       <c r="D71" s="1">
-        <v>1899093</v>
+        <v>2522692</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="4"/>
-        <v>-3052543</v>
+        <v>-2428944</v>
       </c>
       <c r="F71" s="6">
         <f t="shared" si="5"/>
-        <v>-0.61647160655589384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="19.95" customHeight="1">
+        <v>-0.49053363373236647</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="19.95" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C72" s="1">
         <v>2944771</v>
       </c>
+      <c r="D72" s="1">
+        <v>1899093</v>
+      </c>
       <c r="E72" s="1">
         <f t="shared" si="4"/>
-        <v>-2944771</v>
+        <v>-1045678</v>
       </c>
       <c r="F72" s="6">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="19.95" customHeight="1">
+        <v>-0.35509654231177912</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="19.95" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C73" s="1">
         <v>1999226</v>
       </c>
+      <c r="D73" s="1">
+        <v>1410162</v>
+      </c>
       <c r="E73" s="1">
         <f t="shared" si="4"/>
-        <v>-1999226</v>
+        <v>-589064</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="19.95" customHeight="1">
+        <v>-0.29464602801284101</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="19.95" customHeight="1">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="19.95" customHeight="1">
+    <row r="75" spans="1:7" ht="19.95" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="19.95" customHeight="1">
+    <row r="76" spans="1:7" ht="19.95" customHeight="1">
       <c r="B76" s="2" t="s">
         <v>65</v>
       </c>
@@ -2390,8 +2646,11 @@
         <f t="shared" si="5"/>
         <v>-4.8436541998773786E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="19.95" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>66</v>
       </c>
@@ -2409,8 +2668,11 @@
         <f t="shared" si="5"/>
         <v>9.9202834366696191E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="19.95" customHeight="1">
       <c r="B78" s="2" t="s">
         <v>67</v>
       </c>
@@ -2428,8 +2690,11 @@
         <f t="shared" si="5"/>
         <v>-5.494505494505475E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="19.95" customHeight="1">
       <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
@@ -2447,8 +2712,11 @@
         <f t="shared" si="5"/>
         <v>-4.7992616520535325E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="19.95" customHeight="1">
       <c r="B80" s="2" t="s">
         <v>69</v>
       </c>
@@ -2466,8 +2734,11 @@
         <f t="shared" si="5"/>
         <v>-0.10472056429734133</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="19.95" customHeight="1">
       <c r="B81" s="2" t="s">
         <v>70</v>
       </c>
@@ -2485,8 +2756,11 @@
         <f t="shared" si="5"/>
         <v>-4.9374588545095466E-2</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="19.95" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2778,11 @@
         <f t="shared" si="5"/>
         <v>-8.9713155291790359E-2</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="19.95" customHeight="1">
       <c r="B83" s="2" t="s">
         <v>72</v>
       </c>
@@ -2523,8 +2800,11 @@
         <f t="shared" si="5"/>
         <v>-6.5553795540392312E-2</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="19.95" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>73</v>
       </c>
@@ -2542,8 +2822,11 @@
         <f t="shared" si="5"/>
         <v>-0.13384159254553152</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="19.95" customHeight="1">
       <c r="B85" s="2" t="s">
         <v>74</v>
       </c>
@@ -2561,8 +2844,11 @@
         <f t="shared" si="5"/>
         <v>-2.2604951560818098E-2</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="19.95" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>75</v>
       </c>
@@ -2580,8 +2866,11 @@
         <f t="shared" si="5"/>
         <v>0.14964370546318295</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="19.95" customHeight="1">
       <c r="B87" s="2" t="s">
         <v>76</v>
       </c>
@@ -2599,11 +2888,14 @@
         <f t="shared" si="5"/>
         <v>2.6655896607431284E-2</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="19.95" customHeight="1">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="2:6" ht="19.95" customHeight="1">
+    <row r="89" spans="2:7" ht="19.95" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>77</v>
       </c>
@@ -2621,8 +2913,11 @@
         <f t="shared" si="5"/>
         <v>-6.4939119575398108E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="19.95" customHeight="1">
       <c r="B90" s="2" t="s">
         <v>78</v>
       </c>
@@ -2640,8 +2935,11 @@
         <f t="shared" si="5"/>
         <v>0.63578763382128023</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="19.95" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>79</v>
       </c>
@@ -2659,8 +2957,11 @@
         <f t="shared" si="5"/>
         <v>0.46993865030674842</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="19.95" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>125</v>
       </c>
@@ -2678,8 +2979,11 @@
         <f t="shared" si="5"/>
         <v>-8.536877394636011E-2</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="19.95" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>126</v>
       </c>
@@ -2697,8 +3001,11 @@
         <f t="shared" si="5"/>
         <v>0.26547939531994191</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="19.95" customHeight="1">
       <c r="B94" s="2" t="s">
         <v>127</v>
       </c>
@@ -2716,8 +3023,11 @@
         <f t="shared" si="5"/>
         <v>-0.13031596925704525</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="19.95" customHeight="1">
       <c r="B95" s="2" t="s">
         <v>128</v>
       </c>
@@ -2735,8 +3045,11 @@
         <f t="shared" si="5"/>
         <v>-0.12784832144720826</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="19.95" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>129</v>
       </c>
@@ -2754,8 +3067,11 @@
         <f t="shared" si="5"/>
         <v>0.43267776096822996</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="19.95" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>130</v>
       </c>
@@ -2773,8 +3089,11 @@
         <f t="shared" si="5"/>
         <v>-0.12796620698223382</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="19.95" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>131</v>
       </c>
@@ -2792,8 +3111,11 @@
         <f t="shared" si="5"/>
         <v>-9.0372787749466554E-2</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="19.95" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>132</v>
       </c>
@@ -2811,8 +3133,11 @@
         <f t="shared" si="5"/>
         <v>0.53938312515931686</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="19.95" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>133</v>
       </c>
@@ -2830,11 +3155,14 @@
         <f t="shared" si="5"/>
         <v>-5.441377960461935E-2</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="19.95" customHeight="1">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="2:6" ht="19.95" customHeight="1">
+    <row r="102" spans="2:7" ht="19.95" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>80</v>
       </c>
@@ -2852,8 +3180,11 @@
         <f t="shared" si="5"/>
         <v>-0.11895467806220983</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="19.95" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>81</v>
       </c>
@@ -2871,8 +3202,11 @@
         <f t="shared" si="5"/>
         <v>0.24046347152208258</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="19.95" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>82</v>
       </c>
@@ -2890,8 +3224,11 @@
         <f t="shared" si="5"/>
         <v>0.25314495838978135</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="19.95" customHeight="1">
       <c r="B105" s="2" t="s">
         <v>83</v>
       </c>
@@ -2909,8 +3246,11 @@
         <f t="shared" si="5"/>
         <v>-0.14225021974802232</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="19.95" customHeight="1">
       <c r="B106" s="2" t="s">
         <v>84</v>
       </c>
@@ -2928,8 +3268,11 @@
         <f t="shared" si="5"/>
         <v>-5.8574617665678175E-2</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="19.95" customHeight="1">
       <c r="B107" s="2" t="s">
         <v>85</v>
       </c>
@@ -2947,8 +3290,11 @@
         <f t="shared" si="5"/>
         <v>-0.17462574850299406</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="19.95" customHeight="1">
       <c r="B108" s="2" t="s">
         <v>86</v>
       </c>
@@ -2966,8 +3312,11 @@
         <f t="shared" si="5"/>
         <v>-0.19879053773640842</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="19.95" customHeight="1">
       <c r="B109" s="2" t="s">
         <v>87</v>
       </c>
@@ -2985,8 +3334,11 @@
         <f t="shared" si="5"/>
         <v>-0.11769187358916477</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="19.95" customHeight="1">
       <c r="B110" s="2" t="s">
         <v>88</v>
       </c>
@@ -3004,8 +3356,11 @@
         <f t="shared" si="5"/>
         <v>-0.1927938062466914</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="19.95" customHeight="1">
       <c r="B111" s="2" t="s">
         <v>89</v>
       </c>
@@ -3023,8 +3378,11 @@
         <f t="shared" si="5"/>
         <v>-0.13604655644197783</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="19.95" customHeight="1">
       <c r="B112" s="2" t="s">
         <v>90</v>
       </c>
@@ -3042,8 +3400,11 @@
         <f t="shared" si="5"/>
         <v>-8.9347946866003336E-2</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="19.95" customHeight="1">
       <c r="B113" s="2" t="s">
         <v>91</v>
       </c>
@@ -3061,11 +3422,14 @@
         <f t="shared" si="5"/>
         <v>-0.13689052437902482</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="19.95" customHeight="1">
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="2:6" ht="19.95" customHeight="1">
+    <row r="115" spans="2:7" ht="19.95" customHeight="1">
       <c r="B115" s="2" t="s">
         <v>92</v>
       </c>
@@ -3083,8 +3447,11 @@
         <f t="shared" si="5"/>
         <v>-0.11288887726000152</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="19.95" customHeight="1">
       <c r="B116" s="2" t="s">
         <v>93</v>
       </c>
@@ -3102,8 +3469,11 @@
         <f t="shared" si="5"/>
         <v>-0.14211503414916626</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="19.95" customHeight="1">
       <c r="B117" s="2" t="s">
         <v>94</v>
       </c>
@@ -3121,8 +3491,11 @@
         <f t="shared" si="5"/>
         <v>-0.30021267863139434</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="19.95" customHeight="1">
       <c r="B118" s="2" t="s">
         <v>95</v>
       </c>
@@ -3140,8 +3513,11 @@
         <f t="shared" si="5"/>
         <v>-0.23542420808256403</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="19.95" customHeight="1">
       <c r="B119" s="2" t="s">
         <v>96</v>
       </c>
@@ -3159,8 +3535,11 @@
         <f t="shared" si="5"/>
         <v>-0.1481863201025615</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="19.95" customHeight="1">
       <c r="B120" s="2" t="s">
         <v>97</v>
       </c>
@@ -3178,8 +3557,11 @@
         <f t="shared" si="5"/>
         <v>-0.33302020964655066</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G120" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="19.95" customHeight="1">
       <c r="B121" s="2" t="s">
         <v>98</v>
       </c>
@@ -3197,8 +3579,11 @@
         <f t="shared" si="5"/>
         <v>-0.20559470937576807</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="19.95" customHeight="1">
       <c r="B122" s="2" t="s">
         <v>99</v>
       </c>
@@ -3216,8 +3601,11 @@
         <f t="shared" si="5"/>
         <v>-3.4360769259719204E-2</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="19.95" customHeight="1">
       <c r="B123" s="2" t="s">
         <v>100</v>
       </c>
@@ -3235,8 +3623,11 @@
         <f t="shared" si="5"/>
         <v>-0.16959388874379733</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="19.95" customHeight="1">
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
@@ -3254,8 +3645,11 @@
         <f t="shared" si="5"/>
         <v>-0.10177522269252637</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="19.95" customHeight="1">
       <c r="B125" s="2" t="s">
         <v>102</v>
       </c>
@@ -3273,8 +3667,11 @@
         <f t="shared" si="5"/>
         <v>-0.12013647791212734</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="19.95" customHeight="1">
       <c r="B126" s="2" t="s">
         <v>103</v>
       </c>
@@ -3292,11 +3689,14 @@
         <f t="shared" si="5"/>
         <v>-0.22326121839207658</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G126" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="19.95" customHeight="1">
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="2:6" ht="19.95" customHeight="1">
+    <row r="128" spans="2:7" ht="19.95" customHeight="1">
       <c r="B128" s="2" t="s">
         <v>104</v>
       </c>
@@ -3314,8 +3714,11 @@
         <f t="shared" si="5"/>
         <v>8.2611887715632992E-2</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="19.95" customHeight="1">
       <c r="B129" s="2" t="s">
         <v>105</v>
       </c>
@@ -3333,8 +3736,11 @@
         <f t="shared" si="5"/>
         <v>-4.707491192286295E-2</v>
       </c>
-    </row>
-    <row r="130" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G129" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="19.95" customHeight="1">
       <c r="B130" s="2" t="s">
         <v>106</v>
       </c>
@@ -3352,8 +3758,11 @@
         <f t="shared" si="5"/>
         <v>-0.30233301739199947</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G130" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="19.95" customHeight="1">
       <c r="B131" s="2" t="s">
         <v>107</v>
       </c>
@@ -3371,8 +3780,11 @@
         <f t="shared" si="5"/>
         <v>-1.6837166070338694E-2</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G131" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="19.95" customHeight="1">
       <c r="B132" s="2" t="s">
         <v>108</v>
       </c>
@@ -3387,11 +3799,14 @@
         <v>-12106</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" ref="F132:F194" si="7">D132/C132-1</f>
+        <f t="shared" ref="F132:F198" si="7">D132/C132-1</f>
         <v>-4.3264763484053614E-2</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G132" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="19.95" customHeight="1">
       <c r="B133" s="2" t="s">
         <v>109</v>
       </c>
@@ -3409,8 +3824,11 @@
         <f t="shared" si="7"/>
         <v>3.6157872992464091E-2</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G133" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="19.95" customHeight="1">
       <c r="B134" s="2" t="s">
         <v>110</v>
       </c>
@@ -3428,8 +3846,11 @@
         <f t="shared" si="7"/>
         <v>-7.9522043675319676E-3</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G134" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="19.95" customHeight="1">
       <c r="B135" s="2" t="s">
         <v>111</v>
       </c>
@@ -3447,8 +3868,11 @@
         <f t="shared" si="7"/>
         <v>0.16476921230252173</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="19.95" customHeight="1">
       <c r="B136" s="2" t="s">
         <v>112</v>
       </c>
@@ -3466,8 +3890,11 @@
         <f t="shared" si="7"/>
         <v>3.9445349307506428E-2</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G136" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="19.95" customHeight="1">
       <c r="B137" s="2" t="s">
         <v>113</v>
       </c>
@@ -3485,8 +3912,11 @@
         <f t="shared" si="7"/>
         <v>-0.17284186749731312</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G137" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="19.95" customHeight="1">
       <c r="B138" s="2" t="s">
         <v>114</v>
       </c>
@@ -3504,8 +3934,11 @@
         <f t="shared" si="7"/>
         <v>-0.2758173421409108</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="19.95" customHeight="1">
       <c r="B139" s="2" t="s">
         <v>115</v>
       </c>
@@ -3523,8 +3956,11 @@
         <f t="shared" si="7"/>
         <v>-0.50038028375018284</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G139" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="19.95" customHeight="1">
       <c r="B140" s="2" t="s">
         <v>116</v>
       </c>
@@ -3542,8 +3978,11 @@
         <f t="shared" si="7"/>
         <v>2.6851226648660909E-3</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G140" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="19.95" customHeight="1">
       <c r="B141" s="2" t="s">
         <v>117</v>
       </c>
@@ -3561,8 +4000,11 @@
         <f t="shared" si="7"/>
         <v>0.15465299083737905</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="19.95" customHeight="1">
       <c r="B142" s="2" t="s">
         <v>118</v>
       </c>
@@ -3580,8 +4022,11 @@
         <f t="shared" si="7"/>
         <v>5.6861376480086046E-2</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="19.95" customHeight="1">
       <c r="B143" s="2" t="s">
         <v>119</v>
       </c>
@@ -3599,8 +4044,11 @@
         <f t="shared" si="7"/>
         <v>-2.5351703750626897E-2</v>
       </c>
-    </row>
-    <row r="144" spans="2:6" ht="19.95" customHeight="1">
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" ht="19.95" customHeight="1">
       <c r="B144" s="2" t="s">
         <v>120</v>
       </c>
@@ -3618,8 +4066,11 @@
         <f t="shared" si="7"/>
         <v>2.037777607837965E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="19.95" customHeight="1">
       <c r="B145" s="2" t="s">
         <v>121</v>
       </c>
@@ -3637,11 +4088,14 @@
         <f t="shared" si="7"/>
         <v>-9.1162073358814433E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G145" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="19.95" customHeight="1">
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:6" ht="19.95" customHeight="1">
+    <row r="147" spans="1:7" ht="19.95" customHeight="1">
       <c r="B147" s="2" t="s">
         <v>122</v>
       </c>
@@ -3659,8 +4113,11 @@
         <f t="shared" si="7"/>
         <v>-0.62280595194953892</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G147" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="19.95" customHeight="1">
       <c r="B148" s="2" t="s">
         <v>123</v>
       </c>
@@ -3678,8 +4135,11 @@
         <f t="shared" si="7"/>
         <v>-0.10813556417193104</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G148" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="19.95" customHeight="1">
       <c r="B149" s="2" t="s">
         <v>124</v>
       </c>
@@ -3697,17 +4157,18 @@
         <f t="shared" si="7"/>
         <v>-2.040847642283905E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G149" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="151" spans="1:7" ht="19.95" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:6" ht="19.95" customHeight="1">
+    <row r="152" spans="1:7" ht="19.95" customHeight="1">
       <c r="B152" s="2" t="s">
         <v>138</v>
       </c>
@@ -3725,8 +4186,11 @@
         <f t="shared" si="7"/>
         <v>-4.9222797927461093E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="19.95" customHeight="1">
       <c r="B153" s="2" t="s">
         <v>139</v>
       </c>
@@ -3744,8 +4208,11 @@
         <f t="shared" si="7"/>
         <v>-4.9222797927461093E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="19.95" customHeight="1">
       <c r="B154" s="2" t="s">
         <v>140</v>
       </c>
@@ -3763,8 +4230,11 @@
         <f t="shared" si="7"/>
         <v>-4.7232097511427096E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="19.95" customHeight="1">
       <c r="B155" s="2" t="s">
         <v>141</v>
       </c>
@@ -3782,11 +4252,12 @@
         <f t="shared" si="7"/>
         <v>-4.6724225495175187E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="157" spans="1:7" ht="19.95" customHeight="1">
       <c r="B157" s="2" t="s">
         <v>142</v>
       </c>
@@ -3804,8 +4275,11 @@
         <f t="shared" si="7"/>
         <v>-5.5924170616113766E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G157" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="19.95" customHeight="1">
       <c r="B158" s="2" t="s">
         <v>143</v>
       </c>
@@ -3823,8 +4297,11 @@
         <f t="shared" si="7"/>
         <v>-0.12388888888888894</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G158" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="19.95" customHeight="1">
       <c r="B159" s="2" t="s">
         <v>144</v>
       </c>
@@ -3842,8 +4319,11 @@
         <f t="shared" si="7"/>
         <v>-5.6894049346879583E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G159" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="19.95" customHeight="1">
       <c r="B160" s="2" t="s">
         <v>145</v>
       </c>
@@ -3861,11 +4341,12 @@
         <f t="shared" si="7"/>
         <v>-5.5205811138014482E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G160" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="162" spans="1:7" ht="19.95" customHeight="1">
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
@@ -3883,8 +4364,11 @@
         <f t="shared" si="7"/>
         <v>-0.19135494596841229</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G162" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="19.95" customHeight="1">
       <c r="B163" s="2" t="s">
         <v>147</v>
       </c>
@@ -3902,8 +4386,11 @@
         <f t="shared" si="7"/>
         <v>-0.19513641755634636</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G163" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="19.95" customHeight="1">
       <c r="B164" s="2" t="s">
         <v>148</v>
       </c>
@@ -3921,8 +4408,11 @@
         <f t="shared" si="7"/>
         <v>-0.17221930745015734</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G164" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="19.95" customHeight="1">
       <c r="B165" s="2" t="s">
         <v>149</v>
       </c>
@@ -3940,11 +4430,12 @@
         <f t="shared" si="7"/>
         <v>-0.31995029898268235</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G165" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="167" spans="1:7" ht="19.95" customHeight="1">
       <c r="B167" s="2" t="s">
         <v>150</v>
       </c>
@@ -3962,8 +4453,11 @@
         <f t="shared" si="7"/>
         <v>-0.33900302114803627</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="19.95" customHeight="1">
       <c r="B168" s="2" t="s">
         <v>151</v>
       </c>
@@ -3981,8 +4475,11 @@
         <f t="shared" si="7"/>
         <v>-0.26169873717037062</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="19.95" customHeight="1">
       <c r="B169" s="2" t="s">
         <v>152</v>
       </c>
@@ -4000,8 +4497,11 @@
         <f t="shared" si="7"/>
         <v>-0.26907826842648419</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="19.95" customHeight="1">
+      <c r="G169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="19.95" customHeight="1">
       <c r="B170" s="2" t="s">
         <v>153</v>
       </c>
@@ -4019,485 +4519,665 @@
         <f t="shared" si="7"/>
         <v>-0.22934629709262921</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A172" s="1" t="s">
+      <c r="G170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="172" spans="1:7" ht="19.95" customHeight="1">
+      <c r="B172" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D172" s="1">
+        <v>120562</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G172" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="19.95" customHeight="1">
+      <c r="B173" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D173" s="1">
+        <v>153473</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G173" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="19.95" customHeight="1">
+      <c r="B174" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174" s="1">
+        <v>235131</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="176" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A176" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B173" s="2" t="s">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B177" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C177" s="1">
         <v>2625</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D177" s="1">
         <v>2616</v>
       </c>
-      <c r="E173" s="1">
-        <f t="shared" ref="E173:E201" si="8">D173-C173</f>
+      <c r="E177" s="1">
+        <f t="shared" ref="E177:E207" si="8">D177-C177</f>
         <v>-9</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F177" s="6">
         <f t="shared" si="7"/>
         <v>-3.4285714285714475E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B174" s="2" t="s">
+      <c r="G177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C178" s="1">
         <v>3796</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D178" s="1">
         <v>3757</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E178" s="1">
         <f t="shared" si="8"/>
         <v>-39</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F178" s="6">
         <f t="shared" si="7"/>
         <v>-1.0273972602739767E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B175" s="2" t="s">
+      <c r="G178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B179" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C179" s="1">
         <v>4962</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D179" s="1">
         <v>4908</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E179" s="1">
         <f t="shared" si="8"/>
         <v>-54</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F179" s="6">
         <f t="shared" si="7"/>
         <v>-1.0882708585247869E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="19.95" customHeight="1">
-      <c r="B176" s="2" t="s">
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B180" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C180" s="1">
         <v>4958</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D180" s="1">
         <v>4728</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E180" s="1">
         <f t="shared" si="8"/>
         <v>-230</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F180" s="6">
         <f t="shared" si="7"/>
         <v>-4.6389673255344932E-2</v>
       </c>
-    </row>
-    <row r="177" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B177" s="2" t="s">
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B181" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C181" s="1">
         <v>6125</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D181" s="1">
         <v>5837</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E181" s="1">
         <f t="shared" si="8"/>
         <v>-288</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F181" s="6">
         <f t="shared" si="7"/>
         <v>-4.7020408163265359E-2</v>
       </c>
-    </row>
-    <row r="178" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B179" s="2" t="s">
+      <c r="G181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="183" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B183" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C183" s="1">
         <v>6718</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D183" s="1">
         <v>6395</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E183" s="1">
         <f t="shared" si="8"/>
         <v>-323</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F183" s="6">
         <f t="shared" si="7"/>
         <v>-4.8079785650491202E-2</v>
       </c>
-    </row>
-    <row r="180" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B180" s="2" t="s">
+      <c r="G183" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B184" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C184" s="1">
         <v>8250</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D184" s="1">
         <v>7517</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E184" s="1">
         <f t="shared" si="8"/>
         <v>-733</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F184" s="6">
         <f t="shared" si="7"/>
         <v>-8.8848484848484843E-2</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B181" s="2" t="s">
+      <c r="G184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B185" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C185" s="1">
         <v>8625</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D185" s="1">
         <v>8349</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E185" s="1">
         <f t="shared" si="8"/>
         <v>-276</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F185" s="6">
         <f t="shared" si="7"/>
         <v>-3.2000000000000028E-2</v>
       </c>
-    </row>
-    <row r="182" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B182" s="2" t="s">
+      <c r="G185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B186" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C186" s="1">
         <v>8250</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D186" s="1">
         <v>7525</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E186" s="1">
         <f t="shared" si="8"/>
         <v>-725</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F186" s="6">
         <f t="shared" si="7"/>
         <v>-8.787878787878789E-2</v>
       </c>
-    </row>
-    <row r="183" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B184" s="2" t="s">
+      <c r="G186" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="188" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B188" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C188" s="1">
         <v>9670</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D188" s="1">
         <v>8748</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E188" s="1">
         <f t="shared" si="8"/>
         <v>-922</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F188" s="6">
         <f t="shared" si="7"/>
         <v>-9.5346432264736269E-2</v>
       </c>
-    </row>
-    <row r="185" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B185" s="2" t="s">
+      <c r="G188" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B189" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C189" s="1">
         <v>14820</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D189" s="1">
         <v>13205</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E189" s="1">
         <f t="shared" si="8"/>
         <v>-1615</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F189" s="6">
         <f t="shared" si="7"/>
         <v>-0.10897435897435892</v>
       </c>
-    </row>
-    <row r="186" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B186" s="2" t="s">
+      <c r="G189" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B190" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C190" s="1">
         <v>17136</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D190" s="1">
         <v>15072</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E190" s="1">
         <f t="shared" si="8"/>
         <v>-2064</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F190" s="6">
         <f t="shared" si="7"/>
         <v>-0.1204481792717087</v>
       </c>
-    </row>
-    <row r="187" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B187" s="2" t="s">
+      <c r="G190" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B191" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C191" s="1">
         <v>21750</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D191" s="1">
         <v>19245</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E191" s="1">
         <f t="shared" si="8"/>
         <v>-2505</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F191" s="6">
         <f t="shared" si="7"/>
         <v>-0.1151724137931035</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B188" s="2" t="s">
+      <c r="G191" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B192" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C192" s="1">
         <v>22230</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D192" s="1">
         <v>20799</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E192" s="1">
         <f t="shared" si="8"/>
         <v>-1431</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F192" s="6">
         <f t="shared" si="7"/>
         <v>-6.4372469635627483E-2</v>
       </c>
-    </row>
-    <row r="189" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B190" s="2" t="s">
+      <c r="G192" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="194" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B194" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C194" s="1">
         <v>38583</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D194" s="1">
         <v>39605</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E194" s="1">
         <f t="shared" si="8"/>
         <v>1022</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F194" s="6">
         <f t="shared" si="7"/>
         <v>2.6488349791358834E-2</v>
       </c>
-    </row>
-    <row r="191" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B191" s="2" t="s">
+      <c r="G194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B195" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C195" s="1">
         <v>40440</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D195" s="1">
         <v>38787</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E195" s="1">
         <f t="shared" si="8"/>
         <v>-1653</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F195" s="6">
         <f t="shared" si="7"/>
         <v>-4.087537091988136E-2</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B192" s="2" t="s">
+      <c r="G195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B196" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C196" s="1">
         <v>50430</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D196" s="1">
         <v>49688</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E196" s="1">
         <f t="shared" si="8"/>
         <v>-742</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F196" s="6">
         <f t="shared" si="7"/>
         <v>-1.4713464207812832E-2</v>
       </c>
-    </row>
-    <row r="193" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B193" s="2" t="s">
+      <c r="G196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B197" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C197" s="1">
         <v>52250</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D197" s="1">
         <v>54048</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E197" s="1">
         <f t="shared" si="8"/>
         <v>1798</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F197" s="6">
         <f t="shared" si="7"/>
         <v>3.4411483253588449E-2</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B194" s="2" t="s">
+      <c r="G197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B198" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C198" s="1">
         <v>64450</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D198" s="1">
         <v>54320</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E198" s="1">
         <f t="shared" si="8"/>
         <v>-10130</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F198" s="6">
         <f t="shared" si="7"/>
         <v>-0.15717610550814587</v>
       </c>
-    </row>
-    <row r="195" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B196" s="2" t="s">
+      <c r="G198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="200" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B200" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C200" s="1">
         <v>104940</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D200" s="1">
         <v>91014</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E200" s="1">
         <f t="shared" si="8"/>
         <v>-13926</v>
       </c>
-      <c r="F196" s="6">
-        <f t="shared" ref="F196:F201" si="9">D196/C196-1</f>
+      <c r="F200" s="6">
+        <f t="shared" ref="F200:F207" si="9">D200/C200-1</f>
         <v>-0.13270440251572324</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B197" s="2" t="s">
+      <c r="G200" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B201" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C201" s="1">
         <v>104600</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D201" s="1">
         <v>91258</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E201" s="1">
         <f t="shared" si="8"/>
         <v>-13342</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F201" s="6">
         <f t="shared" si="9"/>
         <v>-0.12755258126195024</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B198" s="1" t="s">
+      <c r="G201" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B202" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C202" s="1">
         <v>145860</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D202" s="1">
         <v>130656</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E202" s="1">
         <f t="shared" si="8"/>
         <v>-15204</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F202" s="6">
         <f t="shared" si="9"/>
         <v>-0.10423693953105717</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B199" s="1" t="s">
+      <c r="G202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B203" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C203" s="1">
         <v>202500</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D203" s="1">
         <v>166665</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E203" s="1">
         <f t="shared" si="8"/>
         <v>-35835</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F203" s="6">
         <f t="shared" si="9"/>
         <v>-0.17696296296296299</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B201" s="1" t="s">
+      <c r="G203" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="205" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D205" s="1">
+        <v>394507</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G205" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B206" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D206" s="1">
+        <v>903630</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G206" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" ht="19.95" customHeight="1">
+      <c r="B207" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C207" s="1">
         <v>575447</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D207" s="1">
         <v>462673</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E207" s="1">
         <f t="shared" si="8"/>
         <v>-112774</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F207" s="6">
         <f t="shared" si="9"/>
         <v>-0.1959763453454445</v>
       </c>
+      <c r="G207" s="1">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A171:XFD171"/>
+    <mergeCell ref="A166:XFD166"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A150:XFD150"/>
+    <mergeCell ref="A182:XFD182"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A193:XFD193"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A204:XFD204"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/战备计算器/S5装备价格.xlsx
+++ b/战备计算器/S5装备价格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战备计算器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE2DD8-4436-456C-9CE3-5A0EFD2AF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5517021-6B7F-4D28-A859-4B258F1CC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{DA9659AD-064F-414B-8551-2A3419EEC3A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>护甲</t>
   </si>
@@ -658,10 +658,6 @@
   </si>
   <si>
     <t>DAR突击手胸挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1115,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB26EA9E-056E-45BE-8898-D31BB0456E1D}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147:G149"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1"/>
@@ -1143,7 +1139,7 @@
         <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.95" customHeight="1">
@@ -3283,7 +3279,7 @@
         <v>22054</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" ref="E107:E170" si="6">D107-C107</f>
+        <f t="shared" ref="E107:E172" si="6">D107-C107</f>
         <v>-4666</v>
       </c>
       <c r="F107" s="6">
@@ -4528,17 +4524,19 @@
       <c r="B172" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>187</v>
+      <c r="C172" s="1">
+        <v>0</v>
       </c>
       <c r="D172" s="1">
         <v>120562</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>187</v>
+      <c r="E172" s="1">
+        <f t="shared" si="6"/>
+        <v>120562</v>
+      </c>
+      <c r="F172" s="6" t="e">
+        <f>D172/C172-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G172" s="1">
         <v>5</v>
@@ -4548,17 +4546,19 @@
       <c r="B173" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>187</v>
+      <c r="C173" s="1">
+        <v>0</v>
       </c>
       <c r="D173" s="1">
         <v>153473</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>187</v>
+      <c r="E173" s="1">
+        <f t="shared" ref="E173:E174" si="8">D173-C173</f>
+        <v>153473</v>
+      </c>
+      <c r="F173" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G173" s="1">
         <v>5</v>
@@ -4568,17 +4568,19 @@
       <c r="B174" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>187</v>
+      <c r="C174" s="1">
+        <v>0</v>
       </c>
       <c r="D174" s="1">
         <v>235131</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>187</v>
+      <c r="E174" s="1">
+        <f t="shared" si="8"/>
+        <v>235131</v>
+      </c>
+      <c r="F174" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G174" s="1">
         <v>5</v>
@@ -4602,7 +4604,7 @@
         <v>2616</v>
       </c>
       <c r="E177" s="1">
-        <f t="shared" ref="E177:E207" si="8">D177-C177</f>
+        <f t="shared" ref="E177:E207" si="9">D177-C177</f>
         <v>-9</v>
       </c>
       <c r="F177" s="6">
@@ -4624,7 +4626,7 @@
         <v>3757</v>
       </c>
       <c r="E178" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-39</v>
       </c>
       <c r="F178" s="6">
@@ -4646,7 +4648,7 @@
         <v>4908</v>
       </c>
       <c r="E179" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-54</v>
       </c>
       <c r="F179" s="6">
@@ -4668,7 +4670,7 @@
         <v>4728</v>
       </c>
       <c r="E180" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-230</v>
       </c>
       <c r="F180" s="6">
@@ -4690,7 +4692,7 @@
         <v>5837</v>
       </c>
       <c r="E181" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-288</v>
       </c>
       <c r="F181" s="6">
@@ -4713,7 +4715,7 @@
         <v>6395</v>
       </c>
       <c r="E183" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-323</v>
       </c>
       <c r="F183" s="6">
@@ -4735,7 +4737,7 @@
         <v>7517</v>
       </c>
       <c r="E184" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-733</v>
       </c>
       <c r="F184" s="6">
@@ -4757,7 +4759,7 @@
         <v>8349</v>
       </c>
       <c r="E185" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-276</v>
       </c>
       <c r="F185" s="6">
@@ -4779,7 +4781,7 @@
         <v>7525</v>
       </c>
       <c r="E186" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-725</v>
       </c>
       <c r="F186" s="6">
@@ -4802,7 +4804,7 @@
         <v>8748</v>
       </c>
       <c r="E188" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-922</v>
       </c>
       <c r="F188" s="6">
@@ -4824,7 +4826,7 @@
         <v>13205</v>
       </c>
       <c r="E189" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1615</v>
       </c>
       <c r="F189" s="6">
@@ -4846,7 +4848,7 @@
         <v>15072</v>
       </c>
       <c r="E190" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2064</v>
       </c>
       <c r="F190" s="6">
@@ -4868,7 +4870,7 @@
         <v>19245</v>
       </c>
       <c r="E191" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2505</v>
       </c>
       <c r="F191" s="6">
@@ -4890,7 +4892,7 @@
         <v>20799</v>
       </c>
       <c r="E192" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1431</v>
       </c>
       <c r="F192" s="6">
@@ -4913,7 +4915,7 @@
         <v>39605</v>
       </c>
       <c r="E194" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1022</v>
       </c>
       <c r="F194" s="6">
@@ -4935,7 +4937,7 @@
         <v>38787</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1653</v>
       </c>
       <c r="F195" s="6">
@@ -4957,7 +4959,7 @@
         <v>49688</v>
       </c>
       <c r="E196" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-742</v>
       </c>
       <c r="F196" s="6">
@@ -4979,7 +4981,7 @@
         <v>54048</v>
       </c>
       <c r="E197" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1798</v>
       </c>
       <c r="F197" s="6">
@@ -5001,7 +5003,7 @@
         <v>54320</v>
       </c>
       <c r="E198" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-10130</v>
       </c>
       <c r="F198" s="6">
@@ -5024,11 +5026,11 @@
         <v>91014</v>
       </c>
       <c r="E200" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-13926</v>
       </c>
       <c r="F200" s="6">
-        <f t="shared" ref="F200:F207" si="9">D200/C200-1</f>
+        <f t="shared" ref="F200:F207" si="10">D200/C200-1</f>
         <v>-0.13270440251572324</v>
       </c>
       <c r="G200" s="1">
@@ -5046,11 +5048,11 @@
         <v>91258</v>
       </c>
       <c r="E201" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-13342</v>
       </c>
       <c r="F201" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.12755258126195024</v>
       </c>
       <c r="G201" s="1">
@@ -5068,11 +5070,11 @@
         <v>130656</v>
       </c>
       <c r="E202" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-15204</v>
       </c>
       <c r="F202" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.10423693953105717</v>
       </c>
       <c r="G202" s="1">
@@ -5090,11 +5092,11 @@
         <v>166665</v>
       </c>
       <c r="E203" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-35835</v>
       </c>
       <c r="F203" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.17696296296296299</v>
       </c>
       <c r="G203" s="1">
@@ -5104,19 +5106,21 @@
     <row r="204" spans="2:7" s="7" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="205" spans="2:7" ht="19.95" customHeight="1">
       <c r="B205" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C205" s="1" t="s">
         <v>187</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
       </c>
       <c r="D205" s="1">
         <v>394507</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>187</v>
+      <c r="E205" s="1">
+        <f t="shared" ref="E205:E206" si="11">D205-C205</f>
+        <v>394507</v>
+      </c>
+      <c r="F205" s="6" t="e">
+        <f>D205/C205-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G205" s="1">
         <v>6</v>
@@ -5124,19 +5128,21 @@
     </row>
     <row r="206" spans="2:7" ht="19.95" customHeight="1">
       <c r="B206" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
       </c>
       <c r="D206" s="1">
         <v>903630</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>187</v>
+      <c r="E206" s="1">
+        <f t="shared" si="11"/>
+        <v>903630</v>
+      </c>
+      <c r="F206" s="6" t="e">
+        <f>D206/C206-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G206" s="1">
         <v>6</v>
@@ -5153,11 +5159,11 @@
         <v>462673</v>
       </c>
       <c r="E207" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-112774</v>
       </c>
       <c r="F207" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1959763453454445</v>
       </c>
       <c r="G207" s="1">
@@ -5166,17 +5172,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A204:XFD204"/>
+    <mergeCell ref="A150:XFD150"/>
+    <mergeCell ref="A182:XFD182"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A193:XFD193"/>
+    <mergeCell ref="A199:XFD199"/>
     <mergeCell ref="A175:XFD175"/>
     <mergeCell ref="A171:XFD171"/>
     <mergeCell ref="A166:XFD166"/>
     <mergeCell ref="A161:XFD161"/>
     <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A150:XFD150"/>
-    <mergeCell ref="A182:XFD182"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A193:XFD193"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A204:XFD204"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
